--- a/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B7308A-2247-46ED-B7A3-9FAB60D2E1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFDD5FB-C653-4453-BD84-CAE0E981E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3281ADFF-8505-4D92-A94B-51C95D2C901F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{126AD454-A046-4B4B-BF68-CFA69482C237}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>27,59%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,688 +134,688 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
   </si>
   <si>
     <t>41,04%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DDE26E-8BED-49D6-A6FD-B6A4A18CC450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7573D-0DDC-4932-868E-E7C48A832899}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>181</v>
@@ -1626,13 +1626,13 @@
         <v>210079</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -1641,13 +1641,13 @@
         <v>418942</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1662,13 @@
         <v>174703</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -1677,13 +1677,13 @@
         <v>213605</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -1692,13 +1692,13 @@
         <v>388308</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1713,13 @@
         <v>29432</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -1728,13 +1728,13 @@
         <v>56859</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -1743,13 +1743,13 @@
         <v>86291</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1764,13 @@
         <v>15398</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1779,13 +1779,13 @@
         <v>18034</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -1794,13 +1794,13 @@
         <v>33432</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1868,13 +1868,13 @@
         <v>276805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -1883,13 +1883,13 @@
         <v>231064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>562</v>
@@ -1898,13 +1898,13 @@
         <v>507868</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>193097</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>388</v>
@@ -1934,13 +1934,13 @@
         <v>256786</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>597</v>
@@ -1949,13 +1949,13 @@
         <v>449883</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1970,13 @@
         <v>66285</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
@@ -1985,13 +1985,13 @@
         <v>77008</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -2000,13 +2000,13 @@
         <v>143292</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2021,13 @@
         <v>21066</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2036,13 +2036,13 @@
         <v>18618</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -2051,13 +2051,13 @@
         <v>39684</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2125,13 +2125,13 @@
         <v>306170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -2140,13 +2140,13 @@
         <v>215376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -2155,13 +2155,13 @@
         <v>521546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2176,13 @@
         <v>275273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
@@ -2191,13 +2191,13 @@
         <v>346341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
@@ -2206,13 +2206,13 @@
         <v>621614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2227,13 @@
         <v>118355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>224</v>
@@ -2242,13 +2242,13 @@
         <v>136884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>350</v>
@@ -2257,13 +2257,13 @@
         <v>255240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2278,13 @@
         <v>24191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2293,13 +2293,13 @@
         <v>44406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -2308,13 +2308,13 @@
         <v>68598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2382,13 @@
         <v>193821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -2397,13 +2397,13 @@
         <v>145187</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>443</v>
@@ -2412,13 +2412,13 @@
         <v>339008</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2433,13 @@
         <v>255836</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>425</v>
@@ -2448,13 +2448,13 @@
         <v>254754</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>705</v>
@@ -2463,13 +2463,13 @@
         <v>510590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2484,13 @@
         <v>119705</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>273</v>
@@ -2499,13 +2499,13 @@
         <v>155261</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>417</v>
@@ -2514,13 +2514,13 @@
         <v>274967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2535,13 @@
         <v>30196</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>67</v>
@@ -2550,13 +2550,13 @@
         <v>41860</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -2565,13 +2565,13 @@
         <v>72057</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2639,13 +2639,13 @@
         <v>171258</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>274</v>
@@ -2654,13 +2654,13 @@
         <v>151463</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>515</v>
@@ -2669,13 +2669,13 @@
         <v>322721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2690,13 @@
         <v>292908</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -2705,13 +2705,13 @@
         <v>464721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>1069</v>
@@ -2720,13 +2720,13 @@
         <v>757629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2741,13 @@
         <v>181709</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>545</v>
@@ -2756,13 +2756,13 @@
         <v>280508</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>820</v>
@@ -2771,13 +2771,13 @@
         <v>462216</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2792,13 @@
         <v>45303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>236</v>
@@ -2807,13 +2807,13 @@
         <v>121015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>310</v>
@@ -2822,13 +2822,13 @@
         <v>166318</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2896,13 @@
         <v>1407044</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>1424</v>
@@ -2911,13 +2911,13 @@
         <v>1150050</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>2613</v>
@@ -2926,13 +2926,13 @@
         <v>2557094</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2947,13 @@
         <v>1296029</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>2255</v>
@@ -2962,13 +2962,13 @@
         <v>1647478</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>3634</v>
@@ -2977,13 +2977,13 @@
         <v>2943507</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2998,13 @@
         <v>534956</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1261</v>
@@ -3013,13 +3013,13 @@
         <v>749599</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M36" s="7">
         <v>1902</v>
@@ -3082,10 +3082,10 @@
         <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFDD5FB-C653-4453-BD84-CAE0E981E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{622D1934-849B-45DA-A63F-054818F4ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{126AD454-A046-4B4B-BF68-CFA69482C237}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C8F0BF5-D0D4-46EC-B588-CA7D1D1C8727}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE7573D-0DDC-4932-868E-E7C48A832899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7495E-A1A0-4937-868E-C7F8D1BC15B2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622D1934-849B-45DA-A63F-054818F4ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{291F9555-39AD-41D1-AD4B-16F7C9FDC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C8F0BF5-D0D4-46EC-B588-CA7D1D1C8727}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71EFC0CB-33AD-4ACD-AE21-5EBEFF143088}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>66,23%</t>
   </si>
   <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>27,59%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -167,7 +167,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,05%</t>
@@ -176,7 +176,7 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -185,7 +185,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,22 +197,25 @@
     <t>48,75%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>40,88%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>49,04%</t>
@@ -221,79 +224,82 @@
     <t>40,78%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>41,89%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -302,520 +308,514 @@
     <t>49,67%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>44,52%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>39,44%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>10,81%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>41,04%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>17,25%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>5,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C7495E-A1A0-4937-868E-C7F8D1BC15B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C9B8A8-8E13-4149-AAB4-E0931782BF18}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>181</v>
@@ -1626,13 +1626,13 @@
         <v>210079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -1641,13 +1641,13 @@
         <v>418942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1662,13 @@
         <v>174703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
@@ -1677,13 +1677,13 @@
         <v>213605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -1692,13 +1692,13 @@
         <v>388308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1713,13 @@
         <v>29432</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -1728,13 +1728,13 @@
         <v>56859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -1743,13 +1743,13 @@
         <v>86291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1764,13 @@
         <v>15398</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1779,13 +1779,13 @@
         <v>18034</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -1794,13 +1794,13 @@
         <v>33432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1868,13 +1868,13 @@
         <v>276805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -1883,13 +1883,13 @@
         <v>231064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>562</v>
@@ -1898,13 +1898,13 @@
         <v>507868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>193097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>388</v>
@@ -1934,13 +1934,13 @@
         <v>256786</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>597</v>
@@ -1949,13 +1949,13 @@
         <v>449883</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1970,13 @@
         <v>66285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
@@ -1985,13 +1985,13 @@
         <v>77008</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -2000,13 +2000,13 @@
         <v>143292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2021,13 @@
         <v>21066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2036,13 +2036,13 @@
         <v>18618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -2051,13 +2051,13 @@
         <v>39684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2125,13 +2125,13 @@
         <v>306170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -2140,13 +2140,13 @@
         <v>215376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -2155,13 +2155,13 @@
         <v>521546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2176,13 @@
         <v>275273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
@@ -2191,13 +2191,13 @@
         <v>346341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
@@ -2206,13 +2206,13 @@
         <v>621614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2227,13 @@
         <v>118355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>224</v>
@@ -2242,13 +2242,13 @@
         <v>136884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>350</v>
@@ -2257,13 +2257,13 @@
         <v>255240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2278,13 @@
         <v>24191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2293,13 +2293,13 @@
         <v>44406</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -2308,13 +2308,13 @@
         <v>68598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2382,13 +2382,13 @@
         <v>193821</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -2397,13 +2397,13 @@
         <v>145187</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>443</v>
@@ -2412,13 +2412,13 @@
         <v>339008</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2433,13 @@
         <v>255836</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>425</v>
@@ -2448,13 +2448,13 @@
         <v>254754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>705</v>
@@ -2463,13 +2463,13 @@
         <v>510590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2484,13 @@
         <v>119705</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>273</v>
@@ -2499,13 +2499,13 @@
         <v>155261</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>417</v>
@@ -2514,13 +2514,13 @@
         <v>274967</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2535,13 @@
         <v>30196</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>67</v>
@@ -2550,13 +2550,13 @@
         <v>41860</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -2565,13 +2565,13 @@
         <v>72057</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2639,13 +2639,13 @@
         <v>171258</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>274</v>
@@ -2654,13 +2654,13 @@
         <v>151463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>515</v>
@@ -2669,13 +2669,13 @@
         <v>322721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2690,13 @@
         <v>292908</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -2705,13 +2705,13 @@
         <v>464721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>1069</v>
@@ -2720,13 +2720,13 @@
         <v>757629</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2741,13 @@
         <v>181709</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>545</v>
@@ -2756,13 +2756,13 @@
         <v>280508</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>820</v>
@@ -2771,13 +2771,13 @@
         <v>462216</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2792,13 @@
         <v>45303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>236</v>
@@ -2807,13 +2807,13 @@
         <v>121015</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>310</v>
@@ -2822,13 +2822,13 @@
         <v>166318</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2896,13 @@
         <v>1407044</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>1424</v>
@@ -2911,13 +2911,13 @@
         <v>1150050</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>2613</v>
@@ -2926,13 +2926,13 @@
         <v>2557094</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2947,13 @@
         <v>1296029</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>2255</v>
@@ -2962,13 +2962,13 @@
         <v>1647478</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>3634</v>
@@ -2977,13 +2977,13 @@
         <v>2943507</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2998,13 @@
         <v>534956</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1261</v>
@@ -3013,13 +3013,13 @@
         <v>749599</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="M36" s="7">
         <v>1902</v>
@@ -3082,10 +3082,10 @@
         <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291F9555-39AD-41D1-AD4B-16F7C9FDC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{107AC6FF-B3D7-4D1D-ADFE-C19E5BEADF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71EFC0CB-33AD-4ACD-AE21-5EBEFF143088}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DBF5D5CA-F8E4-4D01-9A5E-521F54C5FDBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="303">
   <si>
     <t>Población según se ha sentido rebosante de energía en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -65,757 +65,883 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C9B8A8-8E13-4149-AAB4-E0931782BF18}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4045197-89CE-42F1-B058-CCE82DA5BC91}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1351,7 +1477,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>250127</v>
+        <v>260892</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1492,7 @@
         <v>114</v>
       </c>
       <c r="I4" s="7">
-        <v>196882</v>
+        <v>170273</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1381,7 +1507,7 @@
         <v>227</v>
       </c>
       <c r="N4" s="7">
-        <v>447010</v>
+        <v>431165</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1402,7 +1528,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>104213</v>
+        <v>115425</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1417,7 +1543,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>111271</v>
+        <v>99541</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1432,7 +1558,7 @@
         <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>215484</v>
+        <v>214966</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1453,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>19470</v>
+        <v>19804</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1468,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>43079</v>
+        <v>39880</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1483,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>62549</v>
+        <v>59684</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1504,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1519,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3725</v>
+        <v>3507</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1534,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>7594</v>
+        <v>7373</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1555,7 +1681,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1570,7 +1696,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1585,7 +1711,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1608,7 +1734,7 @@
         <v>139</v>
       </c>
       <c r="D9" s="7">
-        <v>208863</v>
+        <v>201507</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1623,7 +1749,7 @@
         <v>181</v>
       </c>
       <c r="I9" s="7">
-        <v>210079</v>
+        <v>187308</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1638,7 +1764,7 @@
         <v>320</v>
       </c>
       <c r="N9" s="7">
-        <v>418942</v>
+        <v>388815</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1659,7 +1785,7 @@
         <v>129</v>
       </c>
       <c r="D10" s="7">
-        <v>174703</v>
+        <v>176282</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1674,7 +1800,7 @@
         <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>213605</v>
+        <v>254732</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1689,7 +1815,7 @@
         <v>328</v>
       </c>
       <c r="N10" s="7">
-        <v>388308</v>
+        <v>431014</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1710,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>29432</v>
+        <v>30819</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1725,7 +1851,7 @@
         <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>56859</v>
+        <v>52762</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1740,7 +1866,7 @@
         <v>89</v>
       </c>
       <c r="N11" s="7">
-        <v>86291</v>
+        <v>83581</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1761,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>15398</v>
+        <v>14939</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1776,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>18034</v>
+        <v>16702</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1791,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>33432</v>
+        <v>31641</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1812,7 +1938,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1827,7 +1953,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1842,7 +1968,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1865,7 +1991,7 @@
         <v>256</v>
       </c>
       <c r="D14" s="7">
-        <v>276805</v>
+        <v>264631</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1880,7 +2006,7 @@
         <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>231064</v>
+        <v>211994</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1895,7 +2021,7 @@
         <v>562</v>
       </c>
       <c r="N14" s="7">
-        <v>507868</v>
+        <v>476625</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1904,7 +2030,7 @@
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,46 +2042,46 @@
         <v>209</v>
       </c>
       <c r="D15" s="7">
-        <v>193097</v>
+        <v>188682</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>388</v>
       </c>
       <c r="I15" s="7">
-        <v>256786</v>
+        <v>241221</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>597</v>
       </c>
       <c r="N15" s="7">
-        <v>449883</v>
+        <v>429903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,46 +2093,46 @@
         <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>66285</v>
+        <v>63164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
       </c>
       <c r="I16" s="7">
-        <v>77008</v>
+        <v>72240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
       </c>
       <c r="N16" s="7">
-        <v>143292</v>
+        <v>135405</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,46 +2144,46 @@
         <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>21066</v>
+        <v>19861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>18618</v>
+        <v>17013</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>39684</v>
+        <v>36874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2195,7 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2084,7 +2210,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2099,7 +2225,7 @@
         <v>1392</v>
       </c>
       <c r="N18" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2113,7 +2239,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2122,46 +2248,46 @@
         <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>306170</v>
+        <v>486268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
       </c>
       <c r="I19" s="7">
-        <v>215376</v>
+        <v>196500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
       </c>
       <c r="N19" s="7">
-        <v>521546</v>
+        <v>682769</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,46 +2299,46 @@
         <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>275273</v>
+        <v>265310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
       </c>
       <c r="I20" s="7">
-        <v>346341</v>
+        <v>345887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>825</v>
       </c>
       <c r="N20" s="7">
-        <v>621614</v>
+        <v>611197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,46 +2350,46 @@
         <v>126</v>
       </c>
       <c r="D21" s="7">
-        <v>118355</v>
+        <v>113209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>224</v>
       </c>
       <c r="I21" s="7">
-        <v>136884</v>
+        <v>126767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>350</v>
       </c>
       <c r="N21" s="7">
-        <v>255240</v>
+        <v>239976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,46 +2401,46 @@
         <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>24191</v>
+        <v>22999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>44406</v>
+        <v>39770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
       </c>
       <c r="N22" s="7">
-        <v>68598</v>
+        <v>62769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2452,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2341,7 +2467,7 @@
         <v>1135</v>
       </c>
       <c r="I23" s="7">
-        <v>743007</v>
+        <v>708924</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2356,7 +2482,7 @@
         <v>1800</v>
       </c>
       <c r="N23" s="7">
-        <v>1466997</v>
+        <v>1596711</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2370,7 +2496,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2379,25 +2505,25 @@
         <v>206</v>
       </c>
       <c r="D24" s="7">
-        <v>193821</v>
+        <v>178297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
       </c>
       <c r="I24" s="7">
-        <v>145187</v>
+        <v>132501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>165</v>
@@ -2409,7 +2535,7 @@
         <v>443</v>
       </c>
       <c r="N24" s="7">
-        <v>339008</v>
+        <v>310797</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
@@ -2430,7 +2556,7 @@
         <v>280</v>
       </c>
       <c r="D25" s="7">
-        <v>255836</v>
+        <v>241519</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>170</v>
@@ -2445,31 +2571,31 @@
         <v>425</v>
       </c>
       <c r="I25" s="7">
-        <v>254754</v>
+        <v>233418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>705</v>
       </c>
       <c r="N25" s="7">
-        <v>510590</v>
+        <v>474937</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,46 +2607,46 @@
         <v>144</v>
       </c>
       <c r="D26" s="7">
-        <v>119705</v>
+        <v>112675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>273</v>
       </c>
       <c r="I26" s="7">
-        <v>155261</v>
+        <v>143559</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>417</v>
       </c>
       <c r="N26" s="7">
-        <v>274967</v>
+        <v>256235</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,46 +2658,46 @@
         <v>32</v>
       </c>
       <c r="D27" s="7">
-        <v>30196</v>
+        <v>28200</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>67</v>
       </c>
       <c r="I27" s="7">
-        <v>41860</v>
+        <v>38427</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
       </c>
       <c r="N27" s="7">
-        <v>72057</v>
+        <v>66627</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2709,7 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599558</v>
+        <v>560691</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2598,7 +2724,7 @@
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2613,7 +2739,7 @@
         <v>1664</v>
       </c>
       <c r="N28" s="7">
-        <v>1196622</v>
+        <v>1108596</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2627,55 +2753,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="D29" s="7">
-        <v>171258</v>
+        <v>103645</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="I29" s="7">
-        <v>151463</v>
+        <v>92079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>515</v>
+        <v>345</v>
       </c>
       <c r="N29" s="7">
-        <v>322721</v>
+        <v>195724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,49 +2810,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>429</v>
+        <v>243</v>
       </c>
       <c r="D30" s="7">
-        <v>292908</v>
+        <v>156508</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
-        <v>640</v>
+        <v>335</v>
       </c>
       <c r="I30" s="7">
-        <v>464721</v>
+        <v>370066</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
-        <v>1069</v>
+        <v>578</v>
       </c>
       <c r="N30" s="7">
-        <v>757629</v>
+        <v>526575</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,49 +2861,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D31" s="7">
-        <v>181709</v>
+        <v>91188</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
-        <v>545</v>
+        <v>237</v>
       </c>
       <c r="I31" s="7">
-        <v>280508</v>
+        <v>110296</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
-        <v>820</v>
+        <v>378</v>
       </c>
       <c r="N31" s="7">
-        <v>462216</v>
+        <v>201484</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,49 +2912,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D32" s="7">
-        <v>45303</v>
+        <v>14625</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="I32" s="7">
-        <v>121015</v>
+        <v>32782</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="N32" s="7">
-        <v>166318</v>
+        <v>47407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2963,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1019</v>
+        <v>567</v>
       </c>
       <c r="D33" s="7">
-        <v>691178</v>
+        <v>365966</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2852,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1695</v>
+        <v>825</v>
       </c>
       <c r="I33" s="7">
-        <v>1017706</v>
+        <v>605223</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2867,10 +2993,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2714</v>
+        <v>1392</v>
       </c>
       <c r="N33" s="7">
-        <v>1708884</v>
+        <v>971189</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2884,55 +3010,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1189</v>
+        <v>82</v>
       </c>
       <c r="D34" s="7">
-        <v>1407044</v>
+        <v>55349</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
-        <v>1424</v>
+        <v>88</v>
       </c>
       <c r="I34" s="7">
-        <v>1150050</v>
+        <v>45088</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
-        <v>2613</v>
+        <v>170</v>
       </c>
       <c r="N34" s="7">
-        <v>2557094</v>
+        <v>100436</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,49 +3067,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1379</v>
+        <v>186</v>
       </c>
       <c r="D35" s="7">
-        <v>1296029</v>
+        <v>115988</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
-        <v>2255</v>
+        <v>305</v>
       </c>
       <c r="I35" s="7">
-        <v>1647478</v>
+        <v>153802</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="7">
+        <v>491</v>
+      </c>
+      <c r="N35" s="7">
+        <v>269790</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3634</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2943507</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,49 +3118,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>641</v>
+        <v>134</v>
       </c>
       <c r="D36" s="7">
-        <v>534956</v>
+        <v>79241</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
-        <v>1261</v>
+        <v>308</v>
       </c>
       <c r="I36" s="7">
-        <v>749599</v>
+        <v>143876</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
-        <v>1902</v>
+        <v>442</v>
       </c>
       <c r="N36" s="7">
-        <v>1284555</v>
+        <v>223117</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3169,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="D37" s="7">
-        <v>140023</v>
+        <v>28167</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
-        <v>405</v>
+        <v>169</v>
       </c>
       <c r="I37" s="7">
-        <v>247659</v>
+        <v>77773</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>562</v>
+        <v>219</v>
       </c>
       <c r="N37" s="7">
-        <v>387682</v>
+        <v>105940</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3220,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>452</v>
+      </c>
+      <c r="D38" s="7">
+        <v>278745</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>870</v>
+      </c>
+      <c r="I38" s="7">
+        <v>420539</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1322</v>
+      </c>
+      <c r="N38" s="7">
+        <v>699283</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1189</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1550589</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1424</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1035742</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2613</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2586330</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1379</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1259715</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2255</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1698668</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3634</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2958382</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>641</v>
+      </c>
+      <c r="D41" s="7">
+        <v>510100</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1261</v>
+      </c>
+      <c r="I41" s="7">
+        <v>689381</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1902</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1199481</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>157</v>
+      </c>
+      <c r="D42" s="7">
+        <v>132658</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="7">
+        <v>405</v>
+      </c>
+      <c r="I42" s="7">
+        <v>225973</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" s="7">
+        <v>562</v>
+      </c>
+      <c r="N42" s="7">
+        <v>358630</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3366</v>
       </c>
-      <c r="D38" s="7">
-        <v>3378053</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3453061</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5345</v>
       </c>
-      <c r="I38" s="7">
-        <v>3794786</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3649763</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8711</v>
       </c>
-      <c r="N38" s="7">
-        <v>7172838</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>260</v>
+      <c r="N43" s="7">
+        <v>7102823</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
